--- a/tests/data/tables/generic.genotypes.5.xlsx
+++ b/tests/data/tables/generic.genotypes.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="trajectory" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="genotype" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="sorted" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="unsorted" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="genotype" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="edges" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="distance" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
@@ -192,9 +192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
+      <xdr:colOff>774360</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -208,7 +208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="745560" y="2734920"/>
-          <a:ext cx="7365600" cy="6137280"/>
+          <a:ext cx="7365240" cy="6136920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -234,9 +234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495720</xdr:colOff>
+      <xdr:colOff>495360</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -250,7 +250,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1158840" y="1310040"/>
-          <a:ext cx="6977160" cy="5028120"/>
+          <a:ext cx="6976800" cy="5027760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803240" y="1463040"/>
+          <a:ext cx="6976800" cy="5027760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -910,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,6 +1162,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1130,7 +1173,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
